--- a/Forms/9b. PHS2019 Screening Feedback Form.xlsx
+++ b/Forms/9b. PHS2019 Screening Feedback Form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaron\Documents\2019\Med School\PHS\SR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\i2emr\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA0BF23-A508-49A9-BEA0-079B57F91D0A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311F96B7-D86A-43D7-9E55-370D19110A5A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form Draft 2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="127">
   <si>
     <t>Form Data Collection Template</t>
   </si>
@@ -150,27 +150,9 @@
     <t>No</t>
   </si>
   <si>
-    <t>b. The student volunteers were well-trained 学生义工们有受够专业训练</t>
-  </si>
-  <si>
     <t>Text area</t>
   </si>
   <si>
-    <t>a. The SMS system at the queue was beneficial to me 排队时使用的简讯系统对我有所帮助</t>
-  </si>
-  <si>
-    <t>b. The waiting time to enter the screening was reasonable 我对等候参与身体检查的时间感到合理</t>
-  </si>
-  <si>
-    <t>c. The waiting time for each station was reasonable 我对身体检查中各检查站的等候时间感到合理</t>
-  </si>
-  <si>
-    <t>d. The flow of the screening was easy to follow 身体检查的流程易人遵循</t>
-  </si>
-  <si>
-    <t>e. Others (Please specify) 其他意见（请注明）</t>
-  </si>
-  <si>
     <t>To display text area if "Others" is chosen</t>
   </si>
   <si>
@@ -207,15 +189,6 @@
     <t>More than once a year 每年多于一次</t>
   </si>
   <si>
-    <t>Thank you for completing this survey! :) 谢谢您为我们提供您宝贵的意见！</t>
-  </si>
-  <si>
-    <t>PHS 2019 Screening Feedback Form 公共健康服务 2019 检验反馈表</t>
-  </si>
-  <si>
-    <t>PHS 2019 Screening Feedback Form</t>
-  </si>
-  <si>
     <t>Screening Review</t>
   </si>
   <si>
@@ -252,9 +225,6 @@
     <t>Others (Pls specify) 其他（请注明）_____________</t>
   </si>
   <si>
-    <t>a. The student volunteers attended to my needs 学生义工们有做足我的需求</t>
-  </si>
-  <si>
     <t>SMS Reminder (简讯）</t>
   </si>
   <si>
@@ -264,33 +234,12 @@
     <t>Did not receive brochure</t>
   </si>
   <si>
-    <t xml:space="preserve">We would like to know how you felt about our health screening, as well as how you came to know about it :) Your feedback will go a long way in helping us improve our event! 我们想寻求您对我们公共健康服务 2019 的感受，并且告诉我们您在什么情况下得知这活动的详情! </t>
-  </si>
-  <si>
-    <t>1. I have had a good experience at the PHS 2019 screening. 我在公共健康服务 2019 中有良好的体验。</t>
-  </si>
-  <si>
-    <t>2. We would like to find out some of the reasons why you came for the PHS 2019 screening. Select all that apply. 我们想寻求一些关于您参与此活动的原因</t>
-  </si>
-  <si>
-    <t>a. I came for PHS 2019 because 我会参与此活动因为</t>
-  </si>
-  <si>
-    <t>c. Others (Please specify) 其他意见（请注明）</t>
-  </si>
-  <si>
     <t>Yes 是</t>
   </si>
   <si>
     <t>No 否</t>
   </si>
   <si>
-    <t>6. How often do you have a health screening?  您多久会进行一次健康检查？</t>
-  </si>
-  <si>
-    <t>7. Are you aware of other screening programmes in your community? 您是否对社区里的其他健康检查有所认识？</t>
-  </si>
-  <si>
     <t xml:space="preserve">Not Applicable </t>
   </si>
   <si>
@@ -303,11 +252,141 @@
     <t>2-3 years ago 两到三年前</t>
   </si>
   <si>
-    <t>9. We would like to find out more about how you felt about our student volunteers. 您对我们学生义工们的表现有所看法？</t>
+    <t>&gt;4 years ago 多过四年前</t>
+  </si>
+  <si>
+    <t>GP clinic 私人诊所</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Expensive  太贵</t>
+  </si>
+  <si>
+    <t>Too Far 太远</t>
+  </si>
+  <si>
+    <t>Too time consuming 太费时间</t>
+  </si>
+  <si>
+    <t>NIL</t>
+  </si>
+  <si>
+    <t>Only once (Today) 一次而已 （今天）</t>
+  </si>
+  <si>
+    <t>Two Times 两次</t>
+  </si>
+  <si>
+    <t>Thrice 三次</t>
+  </si>
+  <si>
+    <t>Four Times 四次</t>
+  </si>
+  <si>
+    <t>Five Times (五次）</t>
+  </si>
+  <si>
+    <t>Six Times (六次）</t>
+  </si>
+  <si>
+    <t>Seven or more times (七次以上）</t>
+  </si>
+  <si>
+    <t>Feedback Form</t>
+  </si>
+  <si>
+    <t>PHS 2019 Screening Feedback Form 
+公共健康服务 2019 检验反馈表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We would like to know how you felt about our health screening, as well as how you came to know about it :) Your feedback will go a long way in helping us improve our event!
+ 我们想寻求您对我们公共健康服务 2019 的感受，并且告诉我们您在什么情况下得知这活动的详情! </t>
+  </si>
+  <si>
+    <t>1. I have had a good experience at the PHS 2019 screening.
+ 我在公共健康服务 2019 中有良好的体验。</t>
+  </si>
+  <si>
+    <t>2. We would like to find out some of the reasons why you came for the PHS 2019 screening. Select all that apply. 
+我们想寻求一些关于您参与此活动的原因</t>
+  </si>
+  <si>
+    <t>a. I came for PHS 2019 because
+ 我会参与此活动因为</t>
+  </si>
+  <si>
+    <t>3a.Have you been to PHS before? 
+您是否来过公共健康服务？</t>
+  </si>
+  <si>
+    <t>b. If yes, how many times have you been to PHS screening? (including this year) 
+若有，您来过几次？(包括今年）</t>
+  </si>
+  <si>
+    <t>4. Have you been to other health screenings/checkups before? 
+您有没有参加过其他的健康检查？</t>
+  </si>
+  <si>
+    <t>5. When was your last screening/checkup done? 
+您最近的健康检查是几时做的？</t>
+  </si>
+  <si>
+    <t>6. How often do you have a health screening?  
+您多久会进行一次健康检查？</t>
+  </si>
+  <si>
+    <t>7. Are you aware of other screening programmes in your community?
+ 您是否对社区里的其他健康检查有所认识？</t>
+  </si>
+  <si>
+    <t>8. We would like to find out more about your health beliefs and knowledge. 
+我们想寻求关于您的健康价值观以及健康知识。</t>
+  </si>
+  <si>
+    <t>a. I think I am at risk of getting cancer (colorectal/ breast/ cervical)
+我认为我有可能患上癌症（大肠癌/乳癌/子宫颈癌）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b. I think I am at risk of getting chronic diseases 
+我认为我有可能患上慢性疾病 </t>
+  </si>
+  <si>
+    <t>c. It is important to me to detect chronic diseases and cancer early 
+我认为早期发现慢性疾病与癌症很重要</t>
+  </si>
+  <si>
+    <t>d. I think that health screening is essential to detect chronic diseases and cancer early 
+为了早期发现慢性疾病/癌症，参加健康检查是必须的</t>
+  </si>
+  <si>
+    <t>e. I think that going for health screening is (can tick &gt;1 option)
+ 我认为参加健康检查... （可以选择&gt;1个选项）</t>
+  </si>
+  <si>
+    <t>9. We would like to find out more about how you felt about our student volunteers.
+ 您对我们学生义工们的表现有所看法？</t>
+  </si>
+  <si>
+    <t>a. The student volunteers attended to my needs 
+学生义工们有做足我的需求</t>
+  </si>
+  <si>
+    <t>b. The student volunteers were well-trained 
+学生义工们有受够专业训练</t>
+  </si>
+  <si>
+    <t>c. Others (Please specify) 
+其他意见（请注明）</t>
+  </si>
+  <si>
+    <t>Please Specify for "Others" 请注明:</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">10. Do you have any suggestions on how our student volunteers can improve? </t>
+      <t xml:space="preserve">10. Do you have any suggestions on how our student volunteers can improve? 
+</t>
     </r>
     <r>
       <rPr>
@@ -321,99 +400,57 @@
     </r>
   </si>
   <si>
-    <t>11. Do let us know how you felt about the operational aspects of the screening. 您对此健康检查的执行方式有任何评语？</t>
-  </si>
-  <si>
-    <t>12. What else do you think PHS should screen for? 您认为公共健康服务还可以检查那些其他的疾病？</t>
-  </si>
-  <si>
-    <t>13. I would recommend my family and/or friends to come for the PHS 2019 screening. 我会推荐家人与朋友来参与公共健康服务 2019 的身体检查。</t>
-  </si>
-  <si>
-    <t>15. If you have been contacted for Door-to-Door Publicity, 若您有遇见义工上门宣传
-Did you learn about healthy ageing/metabolic syndrome through our volunteers/brochure? 您是否从义工们/健康宣传册中学到更多关于健康老龄化/代谢综合症的相关知识？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14. How did you come to know of the PHS 2019 screening? Select all that apply. 您如何认知此活动的智讯？（请在所有适当的空格中打勾）
+    <t>11. Do let us know how you felt about the operational aspects of the screening
+. 您对此健康检查的执行方式有任何评语？</t>
+  </si>
+  <si>
+    <t>a. The SMS system at the queue was beneficial to me
+ 排队时使用的简讯系统对我有所帮助</t>
+  </si>
+  <si>
+    <t>b. The waiting time to enter the screening was reasonable
+ 我对等候参与身体检查的时间感到合理</t>
+  </si>
+  <si>
+    <t>c. The waiting time for each station was reasonable
+ 我对身体检查中各检查站的等候时间感到合理</t>
+  </si>
+  <si>
+    <t>d. The flow of the screening was easy to follow 
+身体检查的流程易人遵循</t>
+  </si>
+  <si>
+    <t>e. Others (Please specify) 
+其他意见（请注明）</t>
+  </si>
+  <si>
+    <t>12. What else do you think PHS should screen for? 
+您认为公共健康服务还可以检查那些其他的疾病？</t>
+  </si>
+  <si>
+    <t>13. I would recommend my family and/or friends to come for the PHS 2019 screening. 
+我会推荐家人与朋友来参与公共健康服务 2019 的身体检查。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14. How did you come to know of the PHS 2019 screening? Select all that apply. 
+您如何认知此活动的智讯？（请在所有适当的空格中打勾）
 </t>
   </si>
   <si>
-    <t>16. What else do you want to learn more about through PHS? 您还有什么想更加了解/更深入学习的东西吗？</t>
-  </si>
-  <si>
-    <t>17. Any other feedback? 您有其他的意见吗？</t>
-  </si>
-  <si>
-    <t>&gt;4 years ago 多过四年前</t>
-  </si>
-  <si>
-    <t>GP clinic 私人诊所</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>a. I think I am at risk of getting cancer (colorectal/ breast/ cervical) 我认为我有可能患上癌症（大肠癌/乳癌/子宫颈癌）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b. I think I am at risk of getting chronic diseases 我认为我有可能患上慢性疾病 </t>
-  </si>
-  <si>
-    <t>c. It is important to me to detect chronic diseases and cancer early 我认为早期发现慢性疾病与癌症很重要</t>
-  </si>
-  <si>
-    <t>d. I think that health screening is essential to detect chronic diseases and cancer early 为了早期发现慢性疾病/癌症，参加健康检查是必须的</t>
-  </si>
-  <si>
-    <t>Expensive  太贵</t>
-  </si>
-  <si>
-    <t>Too Far 太远</t>
-  </si>
-  <si>
-    <t>Too time consuming 太费时间</t>
-  </si>
-  <si>
-    <t>4. Have you been to other health screenings/checkups before? 您有没有参加过其他的健康检查？</t>
-  </si>
-  <si>
-    <t>5. When was your last screening/checkup done? 您最近的健康检查是几时做的？</t>
-  </si>
-  <si>
-    <t>8. We would like to find out more about your health beliefs and knowledge. 我们想寻求关于您的健康价值观以及健康知识。</t>
-  </si>
-  <si>
-    <t>e. I think that going for health screening is (can tick &gt;1 option) 我认为参加健康检查... （可以选择&gt;1个选项）</t>
-  </si>
-  <si>
-    <t>3a.Have you been to PHS before? 您是否来过公共健康服务？</t>
-  </si>
-  <si>
-    <t>NIL</t>
-  </si>
-  <si>
-    <t>b. If yes, how many times have you been to PHS screening? (including this year) 若有，您来过几次？(包括今年）</t>
-  </si>
-  <si>
-    <t>Only once (Today) 一次而已 （今天）</t>
-  </si>
-  <si>
-    <t>Two Times 两次</t>
-  </si>
-  <si>
-    <t>Thrice 三次</t>
-  </si>
-  <si>
-    <t>Four Times 四次</t>
-  </si>
-  <si>
-    <t>Five Times (五次）</t>
-  </si>
-  <si>
-    <t>Six Times (六次）</t>
-  </si>
-  <si>
-    <t>Seven or more times (七次以上）</t>
+    <t>15. If you have been contacted for Door-to-Door Publicity, did you learn about healthy ageing/metabolic syndrome through our volunteers/brochure? 
+若您有遇见义工上门宣传您是否从义工们/健康宣传册中学到更多关于健康老龄化/代谢综合症的相关知识？</t>
+  </si>
+  <si>
+    <t>16. What else do you want to learn more about through PHS?
+您还有什么想更加了解/更深入学习的东西吗？</t>
+  </si>
+  <si>
+    <t>17. Any other feedback? 
+您有其他的意见吗？</t>
+  </si>
+  <si>
+    <t>Thank you for completing this survey! :) 
+谢谢您为我们提供您宝贵的意见！</t>
   </si>
 </sst>
 </file>
@@ -551,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -580,31 +617,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -620,6 +645,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -631,8 +657,14 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -951,34 +983,34 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" customWidth="1"/>
-    <col min="2" max="2" width="84.81640625" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" customWidth="1"/>
-    <col min="7" max="16" width="18.7265625" customWidth="1"/>
-    <col min="17" max="26" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="96" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="16" width="18.7109375" customWidth="1"/>
+    <col min="17" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" customHeight="1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:26" ht="16.5">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -988,17 +1020,17 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.5">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:26">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1008,17 +1040,17 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="45" customHeight="1">
-      <c r="A3" s="28" t="s">
+    <row r="3" spans="1:26">
+      <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1028,7 +1060,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="14.5">
+    <row r="4" spans="1:26">
       <c r="A4" s="3"/>
       <c r="B4" s="1"/>
       <c r="D4" s="1"/>
@@ -1043,7 +1075,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="14.5">
+    <row r="5" spans="1:26">
       <c r="A5" s="4"/>
       <c r="B5" s="12" t="s">
         <v>3</v>
@@ -1091,7 +1123,7 @@
         <v>17</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -1103,30 +1135,30 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" spans="1:26" ht="27" customHeight="1">
+    <row r="6" spans="1:26" ht="39">
       <c r="A6" s="6"/>
-      <c r="B6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
@@ -1137,30 +1169,30 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:26" ht="14.5">
+    <row r="7" spans="1:26" ht="60">
       <c r="A7" s="6"/>
       <c r="B7" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
@@ -1171,38 +1203,38 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
     </row>
-    <row r="8" spans="1:26" ht="29.25" customHeight="1">
+    <row r="8" spans="1:26" ht="30">
       <c r="A8" s="6"/>
-      <c r="B8" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="15" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
@@ -1213,30 +1245,30 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:26" ht="29.25" customHeight="1">
+    <row r="9" spans="1:26" ht="45">
       <c r="A9" s="6"/>
-      <c r="B9" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="15"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
@@ -1247,52 +1279,52 @@
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
     </row>
-    <row r="10" spans="1:26" ht="29.25" customHeight="1">
+    <row r="10" spans="1:26" ht="45">
       <c r="A10" s="6"/>
       <c r="B10" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="N10" s="15" t="s">
+      <c r="M10" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="15" t="s">
+      <c r="O10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="P10" s="15" t="s">
+      <c r="P10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="Q10" s="15" t="s">
+      <c r="Q10" s="14" t="s">
         <v>38</v>
       </c>
       <c r="R10" s="7"/>
@@ -1305,34 +1337,30 @@
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
     </row>
-    <row r="11" spans="1:26" s="11" customFormat="1" ht="29.25" customHeight="1">
+    <row r="11" spans="1:26" s="24" customFormat="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
+      <c r="B11" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
@@ -1343,46 +1371,34 @@
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
     </row>
-    <row r="12" spans="1:26" s="25" customFormat="1" ht="29.25" customHeight="1">
+    <row r="12" spans="1:26" s="11" customFormat="1" ht="30">
       <c r="A12" s="8"/>
-      <c r="B12" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="M12" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
@@ -1393,34 +1409,46 @@
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
     </row>
-    <row r="13" spans="1:26" s="11" customFormat="1" ht="29">
+    <row r="13" spans="1:26" s="21" customFormat="1" ht="30">
       <c r="A13" s="8"/>
-      <c r="B13" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="15" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="K13" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
+      <c r="L13" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
@@ -1431,38 +1459,34 @@
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
     </row>
-    <row r="14" spans="1:26" s="11" customFormat="1" ht="14.5">
+    <row r="14" spans="1:26" s="11" customFormat="1" ht="30">
       <c r="A14" s="8"/>
-      <c r="B14" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="20" t="s">
+      <c r="B14" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
@@ -1473,42 +1497,38 @@
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
     </row>
-    <row r="15" spans="1:26" s="1" customFormat="1" ht="14.5">
+    <row r="15" spans="1:26" s="11" customFormat="1" ht="30">
       <c r="A15" s="8"/>
-      <c r="B15" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="15" t="s">
+      <c r="B15" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
@@ -1519,42 +1539,42 @@
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
     </row>
-    <row r="16" spans="1:26" s="1" customFormat="1" ht="43.5">
+    <row r="16" spans="1:26" s="1" customFormat="1" ht="30">
       <c r="A16" s="8"/>
-      <c r="B16" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="20" t="s">
+      <c r="B16" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="J16" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="L16" s="20"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
@@ -1565,114 +1585,110 @@
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
     </row>
-    <row r="17" spans="1:26" ht="29.25" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="15" t="s">
+    <row r="17" spans="1:26" s="1" customFormat="1" ht="45">
+      <c r="A17" s="8"/>
+      <c r="B17" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+    </row>
+    <row r="18" spans="1:26" s="24" customFormat="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+    </row>
+    <row r="19" spans="1:26" ht="30">
+      <c r="A19" s="6"/>
+      <c r="B19" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-    </row>
-    <row r="18" spans="1:26" ht="26">
-      <c r="A18" s="6"/>
-      <c r="B18" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-    </row>
-    <row r="19" spans="1:26" ht="14.5">
-      <c r="A19" s="6"/>
-      <c r="B19" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
@@ -1683,38 +1699,38 @@
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
     </row>
-    <row r="20" spans="1:26" ht="14.5">
+    <row r="20" spans="1:26" ht="25.5">
       <c r="A20" s="6"/>
-      <c r="B20" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="15" t="s">
+      <c r="B20" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="15" t="s">
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
@@ -1725,38 +1741,38 @@
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
     </row>
-    <row r="21" spans="1:26" ht="26">
+    <row r="21" spans="1:26" ht="25.5">
       <c r="A21" s="6"/>
-      <c r="B21" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="15" t="s">
+      <c r="B21" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="15" t="s">
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
@@ -1767,72 +1783,80 @@
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
     </row>
-    <row r="22" spans="1:26" s="11" customFormat="1" ht="26">
-      <c r="A22" s="8"/>
-      <c r="B22" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="20" t="s">
+    <row r="22" spans="1:26" ht="25.5">
+      <c r="A22" s="6"/>
+      <c r="B22" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-    </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1">
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+    </row>
+    <row r="23" spans="1:26" ht="25.5">
       <c r="A23" s="6"/>
-      <c r="B23" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
+      <c r="B23" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
@@ -1843,80 +1867,72 @@
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A24" s="6"/>
+    <row r="24" spans="1:26" s="11" customFormat="1" ht="25.5">
+      <c r="A24" s="8"/>
       <c r="B24" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-    </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1">
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+    </row>
+    <row r="25" spans="1:26" ht="30">
       <c r="A25" s="6"/>
-      <c r="B25" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
+      <c r="B25" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
@@ -1927,30 +1943,38 @@
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:26" ht="30">
       <c r="A26" s="6"/>
-      <c r="B26" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
+      <c r="B26" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -1961,64 +1985,72 @@
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
     </row>
-    <row r="27" spans="1:26" s="11" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A27" s="8"/>
-      <c r="B27" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="20" t="s">
+    <row r="27" spans="1:26" ht="30">
+      <c r="A27" s="6"/>
+      <c r="B27" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+    </row>
+    <row r="28" spans="1:26" ht="30">
+      <c r="A28" s="6"/>
+      <c r="B28" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-    </row>
-    <row r="28" spans="1:26" ht="30" customHeight="1">
-      <c r="A28" s="6"/>
-      <c r="B28" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -2029,82 +2061,64 @@
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
     </row>
-    <row r="29" spans="1:26" ht="30" customHeight="1">
-      <c r="A29" s="6"/>
-      <c r="B29" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-    </row>
-    <row r="30" spans="1:26" ht="28.5" customHeight="1">
+    <row r="29" spans="1:26" s="11" customFormat="1" ht="30">
+      <c r="A29" s="8"/>
+      <c r="B29" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+    </row>
+    <row r="30" spans="1:26" ht="30">
       <c r="A30" s="6"/>
-      <c r="B30" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
+      <c r="B30" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
@@ -2115,38 +2129,40 @@
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
     </row>
-    <row r="31" spans="1:26" ht="29.25" customHeight="1">
+    <row r="31" spans="1:26" ht="30">
       <c r="A31" s="6"/>
       <c r="B31" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="15" t="s">
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I31" s="15" t="s">
+      <c r="I31" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J31" s="15" t="s">
+      <c r="J31" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
+      <c r="K31" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
@@ -2157,38 +2173,38 @@
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
     </row>
-    <row r="32" spans="1:26" ht="30" customHeight="1">
+    <row r="32" spans="1:26" ht="30">
       <c r="A32" s="6"/>
-      <c r="B32" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="15" t="s">
+      <c r="B32" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="15" t="s">
+      <c r="E32" s="14"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I32" s="15" t="s">
+      <c r="I32" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J32" s="15" t="s">
+      <c r="J32" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
@@ -2199,30 +2215,38 @@
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
     </row>
-    <row r="33" spans="1:26" ht="23.25" customHeight="1">
+    <row r="33" spans="1:26" ht="30">
       <c r="A33" s="6"/>
-      <c r="B33" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
+      <c r="B33" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
@@ -2233,72 +2257,72 @@
       <c r="Y33" s="7"/>
       <c r="Z33" s="7"/>
     </row>
-    <row r="34" spans="1:26" s="11" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="20" t="s">
+    <row r="34" spans="1:26" ht="30">
+      <c r="A34" s="6"/>
+      <c r="B34" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+    </row>
+    <row r="35" spans="1:26" ht="30">
+      <c r="A35" s="6"/>
+      <c r="B35" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D35" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-    </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A35" s="6"/>
-      <c r="B35" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J35" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
@@ -2309,254 +2333,319 @@
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A36" s="3"/>
-      <c r="B36" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="15" t="s">
+    <row r="36" spans="1:26" s="11" customFormat="1" ht="30">
+      <c r="A36" s="8"/>
+      <c r="B36" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+    </row>
+    <row r="37" spans="1:26" ht="30">
+      <c r="A37" s="6"/>
+      <c r="B37" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+    </row>
+    <row r="38" spans="1:26" ht="45">
+      <c r="A38" s="3"/>
+      <c r="B38" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D38" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="16" t="s">
+      <c r="E38" s="14"/>
+      <c r="F38" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="J38" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="L38" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="M38" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="N38" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="O38" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="I36" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="J36" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="K36" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="L36" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="M36" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="N36" s="15" t="s">
+      <c r="P38" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q38" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="O36" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="P36" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q36" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="7"/>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="7"/>
-      <c r="Z36" s="7"/>
-    </row>
-    <row r="37" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A37" s="3"/>
-      <c r="B37" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="20" t="s">
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+    </row>
+    <row r="39" spans="1:26" s="24" customFormat="1">
+      <c r="A39" s="3"/>
+      <c r="B39" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
+    </row>
+    <row r="40" spans="1:26" s="1" customFormat="1" ht="60">
+      <c r="A40" s="3"/>
+      <c r="B40" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D40" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="H37" s="20" t="s">
+      <c r="E40" s="14"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H40" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="I37" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="J37" s="15"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
-    </row>
-    <row r="38" spans="1:26" s="11" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A38" s="3"/>
-      <c r="B38" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="20" t="s">
+      <c r="I40" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J40" s="14"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+    </row>
+    <row r="41" spans="1:26" s="11" customFormat="1" ht="30">
+      <c r="A41" s="3"/>
+      <c r="B41" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D41" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-    </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A39" s="3"/>
-      <c r="B39" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="15" t="s">
+      <c r="E41" s="14"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
+    </row>
+    <row r="42" spans="1:26" ht="30">
+      <c r="A42" s="3"/>
+      <c r="B42" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="7"/>
-      <c r="X39" s="7"/>
-      <c r="Y39" s="7"/>
-      <c r="Z39" s="7"/>
-    </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A40" s="3"/>
-      <c r="B40" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="15" t="s">
+      <c r="E42" s="14"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+    </row>
+    <row r="43" spans="1:26" ht="30">
+      <c r="A43" s="3"/>
+      <c r="B43" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D43" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="7"/>
-      <c r="X40" s="7"/>
-      <c r="Y40" s="7"/>
-      <c r="Z40" s="7"/>
-    </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A41" s="3"/>
-      <c r="B41" s="10"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A42" s="3"/>
-      <c r="B42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A43" s="3"/>
-      <c r="B43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1">
+      <c r="E43" s="14"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+    </row>
+    <row r="44" spans="1:26" ht="15.75">
       <c r="A44" s="3"/>
-      <c r="B44" s="1"/>
+      <c r="B44" s="10"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="3"/>
@@ -2569,7 +2658,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1">
+    <row r="45" spans="1:26">
       <c r="A45" s="3"/>
       <c r="B45" s="1"/>
       <c r="D45" s="1"/>
@@ -2584,7 +2673,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1">
+    <row r="46" spans="1:26">
       <c r="A46" s="3"/>
       <c r="B46" s="1"/>
       <c r="D46" s="1"/>
@@ -2594,8 +2683,12 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1">
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47" s="3"/>
       <c r="B47" s="1"/>
       <c r="D47" s="1"/>
@@ -2610,7 +2703,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1">
+    <row r="48" spans="1:26">
       <c r="A48" s="3"/>
       <c r="B48" s="1"/>
       <c r="D48" s="1"/>
@@ -2625,7 +2718,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1">
+    <row r="49" spans="1:14">
       <c r="A49" s="3"/>
       <c r="B49" s="1"/>
       <c r="D49" s="1"/>
@@ -2635,12 +2728,8 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="3"/>
       <c r="B50" s="1"/>
       <c r="D50" s="1"/>
@@ -2655,7 +2744,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1">
+    <row r="51" spans="1:14">
       <c r="A51" s="3"/>
       <c r="B51" s="1"/>
       <c r="D51" s="1"/>
@@ -2670,7 +2759,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1">
+    <row r="52" spans="1:14">
       <c r="A52" s="3"/>
       <c r="B52" s="1"/>
       <c r="D52" s="1"/>
@@ -2685,7 +2774,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1">
+    <row r="53" spans="1:14">
       <c r="A53" s="3"/>
       <c r="B53" s="1"/>
       <c r="D53" s="1"/>
@@ -2700,7 +2789,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1">
+    <row r="54" spans="1:14">
       <c r="A54" s="3"/>
       <c r="B54" s="1"/>
       <c r="D54" s="1"/>
@@ -2715,7 +2804,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1">
+    <row r="55" spans="1:14">
       <c r="A55" s="3"/>
       <c r="B55" s="1"/>
       <c r="D55" s="1"/>
@@ -2730,7 +2819,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1">
+    <row r="56" spans="1:14">
       <c r="A56" s="3"/>
       <c r="B56" s="1"/>
       <c r="D56" s="1"/>
@@ -2745,7 +2834,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1">
+    <row r="57" spans="1:14">
       <c r="A57" s="3"/>
       <c r="B57" s="1"/>
       <c r="D57" s="1"/>
@@ -2760,7 +2849,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1">
+    <row r="58" spans="1:14">
       <c r="A58" s="3"/>
       <c r="B58" s="1"/>
       <c r="D58" s="1"/>
@@ -2775,7 +2864,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1">
+    <row r="59" spans="1:14">
       <c r="A59" s="3"/>
       <c r="B59" s="1"/>
       <c r="D59" s="1"/>
@@ -2790,7 +2879,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1">
+    <row r="60" spans="1:14">
       <c r="A60" s="3"/>
       <c r="B60" s="1"/>
       <c r="D60" s="1"/>
@@ -2805,7 +2894,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1">
+    <row r="61" spans="1:14">
       <c r="A61" s="3"/>
       <c r="B61" s="1"/>
       <c r="D61" s="1"/>
@@ -2820,7 +2909,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1">
+    <row r="62" spans="1:14">
       <c r="A62" s="3"/>
       <c r="B62" s="1"/>
       <c r="D62" s="1"/>
@@ -2835,7 +2924,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1">
+    <row r="63" spans="1:14">
       <c r="A63" s="3"/>
       <c r="B63" s="1"/>
       <c r="D63" s="1"/>
@@ -2850,7 +2939,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1">
+    <row r="64" spans="1:14">
       <c r="A64" s="3"/>
       <c r="B64" s="1"/>
       <c r="D64" s="1"/>
@@ -2865,7 +2954,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="1:14" ht="15.75" customHeight="1">
+    <row r="65" spans="1:14">
       <c r="A65" s="3"/>
       <c r="B65" s="1"/>
       <c r="D65" s="1"/>
@@ -2880,7 +2969,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="1:14" ht="15.75" customHeight="1">
+    <row r="66" spans="1:14">
       <c r="A66" s="3"/>
       <c r="B66" s="1"/>
       <c r="D66" s="1"/>
@@ -2895,7 +2984,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="1:14" ht="15.75" customHeight="1">
+    <row r="67" spans="1:14">
       <c r="A67" s="3"/>
       <c r="B67" s="1"/>
       <c r="D67" s="1"/>
@@ -2910,7 +2999,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="1:14" ht="15.75" customHeight="1">
+    <row r="68" spans="1:14">
       <c r="A68" s="3"/>
       <c r="B68" s="1"/>
       <c r="D68" s="1"/>
@@ -2925,7 +3014,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="1:14" ht="15.75" customHeight="1">
+    <row r="69" spans="1:14">
       <c r="A69" s="3"/>
       <c r="B69" s="1"/>
       <c r="D69" s="1"/>
@@ -2940,7 +3029,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="1:14" ht="15.75" customHeight="1">
+    <row r="70" spans="1:14">
       <c r="A70" s="3"/>
       <c r="B70" s="1"/>
       <c r="D70" s="1"/>
@@ -2955,7 +3044,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="1:14" ht="15.75" customHeight="1">
+    <row r="71" spans="1:14">
       <c r="A71" s="3"/>
       <c r="B71" s="1"/>
       <c r="D71" s="1"/>
@@ -2970,7 +3059,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="1:14" ht="15.75" customHeight="1">
+    <row r="72" spans="1:14">
       <c r="A72" s="3"/>
       <c r="B72" s="1"/>
       <c r="D72" s="1"/>
@@ -2985,7 +3074,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="1:14" ht="15.75" customHeight="1">
+    <row r="73" spans="1:14">
       <c r="A73" s="3"/>
       <c r="B73" s="1"/>
       <c r="D73" s="1"/>
@@ -3000,7 +3089,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="1:14" ht="15.75" customHeight="1">
+    <row r="74" spans="1:14">
       <c r="A74" s="3"/>
       <c r="B74" s="1"/>
       <c r="D74" s="1"/>
@@ -3015,7 +3104,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="1:14" ht="15.75" customHeight="1">
+    <row r="75" spans="1:14">
       <c r="A75" s="3"/>
       <c r="B75" s="1"/>
       <c r="D75" s="1"/>
@@ -3030,7 +3119,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="1:14" ht="15.75" customHeight="1">
+    <row r="76" spans="1:14">
       <c r="A76" s="3"/>
       <c r="B76" s="1"/>
       <c r="D76" s="1"/>
@@ -3045,7 +3134,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="1:14" ht="15.75" customHeight="1">
+    <row r="77" spans="1:14">
       <c r="A77" s="3"/>
       <c r="B77" s="1"/>
       <c r="D77" s="1"/>
@@ -3060,7 +3149,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="1:14" ht="15.75" customHeight="1">
+    <row r="78" spans="1:14">
       <c r="A78" s="3"/>
       <c r="B78" s="1"/>
       <c r="D78" s="1"/>
@@ -3075,7 +3164,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="1:14" ht="15.75" customHeight="1">
+    <row r="79" spans="1:14">
       <c r="A79" s="3"/>
       <c r="B79" s="1"/>
       <c r="D79" s="1"/>
@@ -3090,7 +3179,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="1:14" ht="15.75" customHeight="1">
+    <row r="80" spans="1:14">
       <c r="A80" s="3"/>
       <c r="B80" s="1"/>
       <c r="D80" s="1"/>
@@ -3105,7 +3194,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="1:14" ht="15.75" customHeight="1">
+    <row r="81" spans="1:14">
       <c r="A81" s="3"/>
       <c r="B81" s="1"/>
       <c r="D81" s="1"/>
@@ -3120,7 +3209,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="1:14" ht="15.75" customHeight="1">
+    <row r="82" spans="1:14">
       <c r="A82" s="3"/>
       <c r="B82" s="1"/>
       <c r="D82" s="1"/>
@@ -3135,7 +3224,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="1:14" ht="15.75" customHeight="1">
+    <row r="83" spans="1:14">
       <c r="A83" s="3"/>
       <c r="B83" s="1"/>
       <c r="D83" s="1"/>
@@ -3150,7 +3239,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="1:14" ht="15.75" customHeight="1">
+    <row r="84" spans="1:14">
       <c r="A84" s="3"/>
       <c r="B84" s="1"/>
       <c r="D84" s="1"/>
@@ -3165,7 +3254,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="1:14" ht="15.75" customHeight="1">
+    <row r="85" spans="1:14">
       <c r="A85" s="3"/>
       <c r="B85" s="1"/>
       <c r="D85" s="1"/>
@@ -3180,7 +3269,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="1:14" ht="15.75" customHeight="1">
+    <row r="86" spans="1:14">
       <c r="A86" s="3"/>
       <c r="B86" s="1"/>
       <c r="D86" s="1"/>
@@ -3195,7 +3284,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="1:14" ht="15.75" customHeight="1">
+    <row r="87" spans="1:14">
       <c r="A87" s="3"/>
       <c r="B87" s="1"/>
       <c r="D87" s="1"/>
@@ -3210,7 +3299,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="1:14" ht="15.75" customHeight="1">
+    <row r="88" spans="1:14">
       <c r="A88" s="3"/>
       <c r="B88" s="1"/>
       <c r="D88" s="1"/>
@@ -3225,7 +3314,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="1:14" ht="15.75" customHeight="1">
+    <row r="89" spans="1:14">
       <c r="A89" s="3"/>
       <c r="B89" s="1"/>
       <c r="D89" s="1"/>
@@ -3240,7 +3329,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="1:14" ht="15.75" customHeight="1">
+    <row r="90" spans="1:14">
       <c r="A90" s="3"/>
       <c r="B90" s="1"/>
       <c r="D90" s="1"/>
@@ -3255,7 +3344,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="1:14" ht="15.75" customHeight="1">
+    <row r="91" spans="1:14">
       <c r="A91" s="3"/>
       <c r="B91" s="1"/>
       <c r="D91" s="1"/>
@@ -3270,7 +3359,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="1:14" ht="15.75" customHeight="1">
+    <row r="92" spans="1:14">
       <c r="A92" s="3"/>
       <c r="B92" s="1"/>
       <c r="D92" s="1"/>
@@ -3285,7 +3374,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="1:14" ht="15.75" customHeight="1">
+    <row r="93" spans="1:14">
       <c r="A93" s="3"/>
       <c r="B93" s="1"/>
       <c r="D93" s="1"/>
@@ -3300,7 +3389,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="1:14" ht="15.75" customHeight="1">
+    <row r="94" spans="1:14">
       <c r="A94" s="3"/>
       <c r="B94" s="1"/>
       <c r="D94" s="1"/>
@@ -3315,7 +3404,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="1:14" ht="15.75" customHeight="1">
+    <row r="95" spans="1:14">
       <c r="A95" s="3"/>
       <c r="B95" s="1"/>
       <c r="D95" s="1"/>
@@ -3330,7 +3419,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="1:14" ht="15.75" customHeight="1">
+    <row r="96" spans="1:14">
       <c r="A96" s="3"/>
       <c r="B96" s="1"/>
       <c r="D96" s="1"/>
@@ -3345,7 +3434,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="1:14" ht="15.75" customHeight="1">
+    <row r="97" spans="1:14">
       <c r="A97" s="3"/>
       <c r="B97" s="1"/>
       <c r="D97" s="1"/>
@@ -3360,7 +3449,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="1:14" ht="15.75" customHeight="1">
+    <row r="98" spans="1:14">
       <c r="A98" s="3"/>
       <c r="B98" s="1"/>
       <c r="D98" s="1"/>
@@ -3375,7 +3464,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="1:14" ht="15.75" customHeight="1">
+    <row r="99" spans="1:14">
       <c r="A99" s="3"/>
       <c r="B99" s="1"/>
       <c r="D99" s="1"/>
@@ -3390,7 +3479,7 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="1:14" ht="15.75" customHeight="1">
+    <row r="100" spans="1:14">
       <c r="A100" s="3"/>
       <c r="B100" s="1"/>
       <c r="D100" s="1"/>
@@ -3405,7 +3494,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="1:14" ht="15.75" customHeight="1">
+    <row r="101" spans="1:14">
       <c r="A101" s="3"/>
       <c r="B101" s="1"/>
       <c r="D101" s="1"/>
@@ -3420,7 +3509,7 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="1:14" ht="15.75" customHeight="1">
+    <row r="102" spans="1:14">
       <c r="A102" s="3"/>
       <c r="B102" s="1"/>
       <c r="D102" s="1"/>
@@ -3435,7 +3524,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="1:14" ht="15.75" customHeight="1">
+    <row r="103" spans="1:14">
       <c r="A103" s="3"/>
       <c r="B103" s="1"/>
       <c r="D103" s="1"/>
@@ -3450,7 +3539,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="1:14" ht="15.75" customHeight="1">
+    <row r="104" spans="1:14">
       <c r="A104" s="3"/>
       <c r="B104" s="1"/>
       <c r="D104" s="1"/>
@@ -3465,7 +3554,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="1:14" ht="15.75" customHeight="1">
+    <row r="105" spans="1:14">
       <c r="A105" s="3"/>
       <c r="B105" s="1"/>
       <c r="D105" s="1"/>
@@ -3480,7 +3569,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="1:14" ht="15.75" customHeight="1">
+    <row r="106" spans="1:14">
       <c r="A106" s="3"/>
       <c r="B106" s="1"/>
       <c r="D106" s="1"/>
@@ -3495,7 +3584,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="1:14" ht="15.75" customHeight="1">
+    <row r="107" spans="1:14">
       <c r="A107" s="3"/>
       <c r="B107" s="1"/>
       <c r="D107" s="1"/>
@@ -3510,7 +3599,7 @@
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="1:14" ht="15.75" customHeight="1">
+    <row r="108" spans="1:14">
       <c r="A108" s="3"/>
       <c r="B108" s="1"/>
       <c r="D108" s="1"/>
@@ -3525,7 +3614,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="1:14" ht="15.75" customHeight="1">
+    <row r="109" spans="1:14">
       <c r="A109" s="3"/>
       <c r="B109" s="1"/>
       <c r="D109" s="1"/>
@@ -3540,7 +3629,7 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="1:14" ht="15.75" customHeight="1">
+    <row r="110" spans="1:14">
       <c r="A110" s="3"/>
       <c r="B110" s="1"/>
       <c r="D110" s="1"/>
@@ -3555,7 +3644,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="1:14" ht="15.75" customHeight="1">
+    <row r="111" spans="1:14">
       <c r="A111" s="3"/>
       <c r="B111" s="1"/>
       <c r="D111" s="1"/>
@@ -3570,7 +3659,7 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="1:14" ht="15.75" customHeight="1">
+    <row r="112" spans="1:14">
       <c r="A112" s="3"/>
       <c r="B112" s="1"/>
       <c r="D112" s="1"/>
@@ -3585,7 +3674,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="1:14" ht="15.75" customHeight="1">
+    <row r="113" spans="1:14">
       <c r="A113" s="3"/>
       <c r="B113" s="1"/>
       <c r="D113" s="1"/>
@@ -3600,7 +3689,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="1:14" ht="15.75" customHeight="1">
+    <row r="114" spans="1:14">
       <c r="A114" s="3"/>
       <c r="B114" s="1"/>
       <c r="D114" s="1"/>
@@ -3615,7 +3704,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="1:14" ht="15.75" customHeight="1">
+    <row r="115" spans="1:14">
       <c r="A115" s="3"/>
       <c r="B115" s="1"/>
       <c r="D115" s="1"/>
@@ -3630,7 +3719,7 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="1:14" ht="15.75" customHeight="1">
+    <row r="116" spans="1:14">
       <c r="A116" s="3"/>
       <c r="B116" s="1"/>
       <c r="D116" s="1"/>
@@ -3645,7 +3734,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="1:14" ht="15.75" customHeight="1">
+    <row r="117" spans="1:14">
       <c r="A117" s="3"/>
       <c r="B117" s="1"/>
       <c r="D117" s="1"/>
@@ -3660,7 +3749,7 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="1:14" ht="15.75" customHeight="1">
+    <row r="118" spans="1:14">
       <c r="A118" s="3"/>
       <c r="B118" s="1"/>
       <c r="D118" s="1"/>
@@ -3675,7 +3764,7 @@
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
     </row>
-    <row r="119" spans="1:14" ht="15.75" customHeight="1">
+    <row r="119" spans="1:14">
       <c r="A119" s="3"/>
       <c r="B119" s="1"/>
       <c r="D119" s="1"/>
@@ -3690,7 +3779,7 @@
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="1:14" ht="15.75" customHeight="1">
+    <row r="120" spans="1:14">
       <c r="A120" s="3"/>
       <c r="B120" s="1"/>
       <c r="D120" s="1"/>
@@ -3705,7 +3794,7 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="1:14" ht="15.75" customHeight="1">
+    <row r="121" spans="1:14">
       <c r="A121" s="3"/>
       <c r="B121" s="1"/>
       <c r="D121" s="1"/>
@@ -3720,7 +3809,7 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="1:14" ht="15.75" customHeight="1">
+    <row r="122" spans="1:14">
       <c r="A122" s="3"/>
       <c r="B122" s="1"/>
       <c r="D122" s="1"/>
@@ -3735,7 +3824,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="1:14" ht="15.75" customHeight="1">
+    <row r="123" spans="1:14">
       <c r="A123" s="3"/>
       <c r="B123" s="1"/>
       <c r="D123" s="1"/>
@@ -3750,7 +3839,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="1:14" ht="15.75" customHeight="1">
+    <row r="124" spans="1:14">
       <c r="A124" s="3"/>
       <c r="B124" s="1"/>
       <c r="D124" s="1"/>
@@ -3765,7 +3854,7 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="1:14" ht="15.75" customHeight="1">
+    <row r="125" spans="1:14">
       <c r="A125" s="3"/>
       <c r="B125" s="1"/>
       <c r="D125" s="1"/>
@@ -3780,7 +3869,7 @@
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
     </row>
-    <row r="126" spans="1:14" ht="15.75" customHeight="1">
+    <row r="126" spans="1:14">
       <c r="A126" s="3"/>
       <c r="B126" s="1"/>
       <c r="D126" s="1"/>
@@ -3795,7 +3884,7 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="1:14" ht="15.75" customHeight="1">
+    <row r="127" spans="1:14">
       <c r="A127" s="3"/>
       <c r="B127" s="1"/>
       <c r="D127" s="1"/>
@@ -3810,7 +3899,7 @@
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
     </row>
-    <row r="128" spans="1:14" ht="15.75" customHeight="1">
+    <row r="128" spans="1:14">
       <c r="A128" s="3"/>
       <c r="B128" s="1"/>
       <c r="D128" s="1"/>
@@ -3825,7 +3914,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="1:14" ht="15.75" customHeight="1">
+    <row r="129" spans="1:14">
       <c r="A129" s="3"/>
       <c r="B129" s="1"/>
       <c r="D129" s="1"/>
@@ -3840,7 +3929,7 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="1:14" ht="15.75" customHeight="1">
+    <row r="130" spans="1:14">
       <c r="A130" s="3"/>
       <c r="B130" s="1"/>
       <c r="D130" s="1"/>
@@ -3855,7 +3944,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="1:14" ht="15.75" customHeight="1">
+    <row r="131" spans="1:14">
       <c r="A131" s="3"/>
       <c r="B131" s="1"/>
       <c r="D131" s="1"/>
@@ -3870,7 +3959,7 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="1:14" ht="15.75" customHeight="1">
+    <row r="132" spans="1:14">
       <c r="A132" s="3"/>
       <c r="B132" s="1"/>
       <c r="D132" s="1"/>
@@ -3885,7 +3974,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="1:14" ht="15.75" customHeight="1">
+    <row r="133" spans="1:14">
       <c r="A133" s="3"/>
       <c r="B133" s="1"/>
       <c r="D133" s="1"/>
@@ -3900,7 +3989,7 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="1:14" ht="15.75" customHeight="1">
+    <row r="134" spans="1:14">
       <c r="A134" s="3"/>
       <c r="B134" s="1"/>
       <c r="D134" s="1"/>
@@ -3915,7 +4004,7 @@
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
     </row>
-    <row r="135" spans="1:14" ht="15.75" customHeight="1">
+    <row r="135" spans="1:14">
       <c r="A135" s="3"/>
       <c r="B135" s="1"/>
       <c r="D135" s="1"/>
@@ -3930,7 +4019,7 @@
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
     </row>
-    <row r="136" spans="1:14" ht="15.75" customHeight="1">
+    <row r="136" spans="1:14">
       <c r="A136" s="3"/>
       <c r="B136" s="1"/>
       <c r="D136" s="1"/>
@@ -3945,7 +4034,7 @@
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="1:14" ht="15.75" customHeight="1">
+    <row r="137" spans="1:14">
       <c r="A137" s="3"/>
       <c r="B137" s="1"/>
       <c r="D137" s="1"/>
@@ -3960,7 +4049,7 @@
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
     </row>
-    <row r="138" spans="1:14" ht="15.75" customHeight="1">
+    <row r="138" spans="1:14">
       <c r="A138" s="3"/>
       <c r="B138" s="1"/>
       <c r="D138" s="1"/>
@@ -3975,7 +4064,7 @@
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
     </row>
-    <row r="139" spans="1:14" ht="15.75" customHeight="1">
+    <row r="139" spans="1:14">
       <c r="A139" s="3"/>
       <c r="B139" s="1"/>
       <c r="D139" s="1"/>
@@ -3990,7 +4079,7 @@
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
     </row>
-    <row r="140" spans="1:14" ht="15.75" customHeight="1">
+    <row r="140" spans="1:14">
       <c r="A140" s="3"/>
       <c r="B140" s="1"/>
       <c r="D140" s="1"/>
@@ -4005,7 +4094,7 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="1:14" ht="15.75" customHeight="1">
+    <row r="141" spans="1:14">
       <c r="A141" s="3"/>
       <c r="B141" s="1"/>
       <c r="D141" s="1"/>
@@ -4020,7 +4109,7 @@
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
     </row>
-    <row r="142" spans="1:14" ht="15.75" customHeight="1">
+    <row r="142" spans="1:14">
       <c r="A142" s="3"/>
       <c r="B142" s="1"/>
       <c r="D142" s="1"/>
@@ -4035,7 +4124,7 @@
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="1:14" ht="15.75" customHeight="1">
+    <row r="143" spans="1:14">
       <c r="A143" s="3"/>
       <c r="B143" s="1"/>
       <c r="D143" s="1"/>
@@ -4050,7 +4139,7 @@
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
     </row>
-    <row r="144" spans="1:14" ht="15.75" customHeight="1">
+    <row r="144" spans="1:14">
       <c r="A144" s="3"/>
       <c r="B144" s="1"/>
       <c r="D144" s="1"/>
@@ -4065,7 +4154,7 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="1:14" ht="15.75" customHeight="1">
+    <row r="145" spans="1:14">
       <c r="A145" s="3"/>
       <c r="B145" s="1"/>
       <c r="D145" s="1"/>
@@ -4080,7 +4169,7 @@
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
     </row>
-    <row r="146" spans="1:14" ht="15.75" customHeight="1">
+    <row r="146" spans="1:14">
       <c r="A146" s="3"/>
       <c r="B146" s="1"/>
       <c r="D146" s="1"/>
@@ -4095,7 +4184,7 @@
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
     </row>
-    <row r="147" spans="1:14" ht="15.75" customHeight="1">
+    <row r="147" spans="1:14">
       <c r="A147" s="3"/>
       <c r="B147" s="1"/>
       <c r="D147" s="1"/>
@@ -4110,7 +4199,7 @@
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
     </row>
-    <row r="148" spans="1:14" ht="15.75" customHeight="1">
+    <row r="148" spans="1:14">
       <c r="A148" s="3"/>
       <c r="B148" s="1"/>
       <c r="D148" s="1"/>
@@ -4125,7 +4214,7 @@
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
     </row>
-    <row r="149" spans="1:14" ht="15.75" customHeight="1">
+    <row r="149" spans="1:14">
       <c r="A149" s="3"/>
       <c r="B149" s="1"/>
       <c r="D149" s="1"/>
@@ -4140,7 +4229,7 @@
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
     </row>
-    <row r="150" spans="1:14" ht="15.75" customHeight="1">
+    <row r="150" spans="1:14">
       <c r="A150" s="3"/>
       <c r="B150" s="1"/>
       <c r="D150" s="1"/>
@@ -4155,7 +4244,7 @@
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
     </row>
-    <row r="151" spans="1:14" ht="15.75" customHeight="1">
+    <row r="151" spans="1:14">
       <c r="A151" s="3"/>
       <c r="B151" s="1"/>
       <c r="D151" s="1"/>
@@ -4170,7 +4259,7 @@
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="1:14" ht="15.75" customHeight="1">
+    <row r="152" spans="1:14">
       <c r="A152" s="3"/>
       <c r="B152" s="1"/>
       <c r="D152" s="1"/>
@@ -4185,7 +4274,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="1:14" ht="15.75" customHeight="1">
+    <row r="153" spans="1:14">
       <c r="A153" s="3"/>
       <c r="B153" s="1"/>
       <c r="D153" s="1"/>
@@ -4200,7 +4289,7 @@
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="1:14" ht="15.75" customHeight="1">
+    <row r="154" spans="1:14">
       <c r="A154" s="3"/>
       <c r="B154" s="1"/>
       <c r="D154" s="1"/>
@@ -4215,7 +4304,7 @@
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="1:14" ht="15.75" customHeight="1">
+    <row r="155" spans="1:14">
       <c r="A155" s="3"/>
       <c r="B155" s="1"/>
       <c r="D155" s="1"/>
@@ -4230,7 +4319,7 @@
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
     </row>
-    <row r="156" spans="1:14" ht="15.75" customHeight="1">
+    <row r="156" spans="1:14">
       <c r="A156" s="3"/>
       <c r="B156" s="1"/>
       <c r="D156" s="1"/>
@@ -4245,7 +4334,7 @@
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
     </row>
-    <row r="157" spans="1:14" ht="15.75" customHeight="1">
+    <row r="157" spans="1:14">
       <c r="A157" s="3"/>
       <c r="B157" s="1"/>
       <c r="D157" s="1"/>
@@ -4260,7 +4349,7 @@
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
     </row>
-    <row r="158" spans="1:14" ht="15.75" customHeight="1">
+    <row r="158" spans="1:14">
       <c r="A158" s="3"/>
       <c r="B158" s="1"/>
       <c r="D158" s="1"/>
@@ -4275,7 +4364,7 @@
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
     </row>
-    <row r="159" spans="1:14" ht="15.75" customHeight="1">
+    <row r="159" spans="1:14">
       <c r="A159" s="3"/>
       <c r="B159" s="1"/>
       <c r="D159" s="1"/>
@@ -4290,7 +4379,7 @@
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
     </row>
-    <row r="160" spans="1:14" ht="15.75" customHeight="1">
+    <row r="160" spans="1:14">
       <c r="A160" s="3"/>
       <c r="B160" s="1"/>
       <c r="D160" s="1"/>
@@ -4305,7 +4394,7 @@
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
     </row>
-    <row r="161" spans="1:14" ht="15.75" customHeight="1">
+    <row r="161" spans="1:14">
       <c r="A161" s="3"/>
       <c r="B161" s="1"/>
       <c r="D161" s="1"/>
@@ -4320,7 +4409,7 @@
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
     </row>
-    <row r="162" spans="1:14" ht="15.75" customHeight="1">
+    <row r="162" spans="1:14">
       <c r="A162" s="3"/>
       <c r="B162" s="1"/>
       <c r="D162" s="1"/>
@@ -4335,7 +4424,7 @@
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
     </row>
-    <row r="163" spans="1:14" ht="15.75" customHeight="1">
+    <row r="163" spans="1:14">
       <c r="A163" s="3"/>
       <c r="B163" s="1"/>
       <c r="D163" s="1"/>
@@ -4350,7 +4439,7 @@
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
     </row>
-    <row r="164" spans="1:14" ht="15.75" customHeight="1">
+    <row r="164" spans="1:14">
       <c r="A164" s="3"/>
       <c r="B164" s="1"/>
       <c r="D164" s="1"/>
@@ -4365,7 +4454,7 @@
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
     </row>
-    <row r="165" spans="1:14" ht="15.75" customHeight="1">
+    <row r="165" spans="1:14">
       <c r="A165" s="3"/>
       <c r="B165" s="1"/>
       <c r="D165" s="1"/>
@@ -4380,7 +4469,7 @@
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
     </row>
-    <row r="166" spans="1:14" ht="15.75" customHeight="1">
+    <row r="166" spans="1:14">
       <c r="A166" s="3"/>
       <c r="B166" s="1"/>
       <c r="D166" s="1"/>
@@ -4395,7 +4484,7 @@
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
     </row>
-    <row r="167" spans="1:14" ht="15.75" customHeight="1">
+    <row r="167" spans="1:14">
       <c r="A167" s="3"/>
       <c r="B167" s="1"/>
       <c r="D167" s="1"/>
@@ -4410,7 +4499,7 @@
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
     </row>
-    <row r="168" spans="1:14" ht="15.75" customHeight="1">
+    <row r="168" spans="1:14">
       <c r="A168" s="3"/>
       <c r="B168" s="1"/>
       <c r="D168" s="1"/>
@@ -4425,7 +4514,7 @@
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="1:14" ht="15.75" customHeight="1">
+    <row r="169" spans="1:14">
       <c r="A169" s="3"/>
       <c r="B169" s="1"/>
       <c r="D169" s="1"/>
@@ -4440,7 +4529,7 @@
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
     </row>
-    <row r="170" spans="1:14" ht="15.75" customHeight="1">
+    <row r="170" spans="1:14">
       <c r="A170" s="3"/>
       <c r="B170" s="1"/>
       <c r="D170" s="1"/>
@@ -4455,7 +4544,7 @@
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
     </row>
-    <row r="171" spans="1:14" ht="15.75" customHeight="1">
+    <row r="171" spans="1:14">
       <c r="A171" s="3"/>
       <c r="B171" s="1"/>
       <c r="D171" s="1"/>
@@ -4470,7 +4559,7 @@
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
     </row>
-    <row r="172" spans="1:14" ht="15.75" customHeight="1">
+    <row r="172" spans="1:14">
       <c r="A172" s="3"/>
       <c r="B172" s="1"/>
       <c r="D172" s="1"/>
@@ -4485,7 +4574,7 @@
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
     </row>
-    <row r="173" spans="1:14" ht="15.75" customHeight="1">
+    <row r="173" spans="1:14">
       <c r="A173" s="3"/>
       <c r="B173" s="1"/>
       <c r="D173" s="1"/>
@@ -4500,7 +4589,7 @@
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
     </row>
-    <row r="174" spans="1:14" ht="15.75" customHeight="1">
+    <row r="174" spans="1:14">
       <c r="A174" s="3"/>
       <c r="B174" s="1"/>
       <c r="D174" s="1"/>
@@ -4515,7 +4604,7 @@
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
     </row>
-    <row r="175" spans="1:14" ht="15.75" customHeight="1">
+    <row r="175" spans="1:14">
       <c r="A175" s="3"/>
       <c r="B175" s="1"/>
       <c r="D175" s="1"/>
@@ -4530,7 +4619,7 @@
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
     </row>
-    <row r="176" spans="1:14" ht="15.75" customHeight="1">
+    <row r="176" spans="1:14">
       <c r="A176" s="3"/>
       <c r="B176" s="1"/>
       <c r="D176" s="1"/>
@@ -4545,7 +4634,7 @@
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
     </row>
-    <row r="177" spans="1:14" ht="15.75" customHeight="1">
+    <row r="177" spans="1:14">
       <c r="A177" s="3"/>
       <c r="B177" s="1"/>
       <c r="D177" s="1"/>
@@ -4560,7 +4649,7 @@
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
     </row>
-    <row r="178" spans="1:14" ht="15.75" customHeight="1">
+    <row r="178" spans="1:14">
       <c r="A178" s="3"/>
       <c r="B178" s="1"/>
       <c r="D178" s="1"/>
@@ -4575,7 +4664,7 @@
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
     </row>
-    <row r="179" spans="1:14" ht="15.75" customHeight="1">
+    <row r="179" spans="1:14">
       <c r="A179" s="3"/>
       <c r="B179" s="1"/>
       <c r="D179" s="1"/>
@@ -4590,7 +4679,7 @@
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
     </row>
-    <row r="180" spans="1:14" ht="15.75" customHeight="1">
+    <row r="180" spans="1:14">
       <c r="A180" s="3"/>
       <c r="B180" s="1"/>
       <c r="D180" s="1"/>
@@ -4605,7 +4694,7 @@
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
     </row>
-    <row r="181" spans="1:14" ht="15.75" customHeight="1">
+    <row r="181" spans="1:14">
       <c r="A181" s="3"/>
       <c r="B181" s="1"/>
       <c r="D181" s="1"/>
@@ -4620,7 +4709,7 @@
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
     </row>
-    <row r="182" spans="1:14" ht="15.75" customHeight="1">
+    <row r="182" spans="1:14">
       <c r="A182" s="3"/>
       <c r="B182" s="1"/>
       <c r="D182" s="1"/>
@@ -4635,7 +4724,7 @@
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
     </row>
-    <row r="183" spans="1:14" ht="15.75" customHeight="1">
+    <row r="183" spans="1:14">
       <c r="A183" s="3"/>
       <c r="B183" s="1"/>
       <c r="D183" s="1"/>
@@ -4650,7 +4739,7 @@
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
     </row>
-    <row r="184" spans="1:14" ht="15.75" customHeight="1">
+    <row r="184" spans="1:14">
       <c r="A184" s="3"/>
       <c r="B184" s="1"/>
       <c r="D184" s="1"/>
@@ -4665,7 +4754,7 @@
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
     </row>
-    <row r="185" spans="1:14" ht="15.75" customHeight="1">
+    <row r="185" spans="1:14">
       <c r="A185" s="3"/>
       <c r="B185" s="1"/>
       <c r="D185" s="1"/>
@@ -4680,7 +4769,7 @@
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
     </row>
-    <row r="186" spans="1:14" ht="15.75" customHeight="1">
+    <row r="186" spans="1:14">
       <c r="A186" s="3"/>
       <c r="B186" s="1"/>
       <c r="D186" s="1"/>
@@ -4695,7 +4784,7 @@
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
     </row>
-    <row r="187" spans="1:14" ht="15.75" customHeight="1">
+    <row r="187" spans="1:14">
       <c r="A187" s="3"/>
       <c r="B187" s="1"/>
       <c r="D187" s="1"/>
@@ -4710,7 +4799,7 @@
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
     </row>
-    <row r="188" spans="1:14" ht="15.75" customHeight="1">
+    <row r="188" spans="1:14">
       <c r="A188" s="3"/>
       <c r="B188" s="1"/>
       <c r="D188" s="1"/>
@@ -4725,7 +4814,7 @@
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
     </row>
-    <row r="189" spans="1:14" ht="15.75" customHeight="1">
+    <row r="189" spans="1:14">
       <c r="A189" s="3"/>
       <c r="B189" s="1"/>
       <c r="D189" s="1"/>
@@ -4740,7 +4829,7 @@
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
     </row>
-    <row r="190" spans="1:14" ht="15.75" customHeight="1">
+    <row r="190" spans="1:14">
       <c r="A190" s="3"/>
       <c r="B190" s="1"/>
       <c r="D190" s="1"/>
@@ -4755,7 +4844,7 @@
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
     </row>
-    <row r="191" spans="1:14" ht="15.75" customHeight="1">
+    <row r="191" spans="1:14">
       <c r="A191" s="3"/>
       <c r="B191" s="1"/>
       <c r="D191" s="1"/>
@@ -4770,7 +4859,7 @@
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
     </row>
-    <row r="192" spans="1:14" ht="15.75" customHeight="1">
+    <row r="192" spans="1:14">
       <c r="A192" s="3"/>
       <c r="B192" s="1"/>
       <c r="D192" s="1"/>
@@ -4785,7 +4874,7 @@
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
     </row>
-    <row r="193" spans="1:14" ht="15.75" customHeight="1">
+    <row r="193" spans="1:14">
       <c r="A193" s="3"/>
       <c r="B193" s="1"/>
       <c r="D193" s="1"/>
@@ -4800,7 +4889,7 @@
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
     </row>
-    <row r="194" spans="1:14" ht="15.75" customHeight="1">
+    <row r="194" spans="1:14">
       <c r="A194" s="3"/>
       <c r="B194" s="1"/>
       <c r="D194" s="1"/>
@@ -4815,7 +4904,7 @@
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
     </row>
-    <row r="195" spans="1:14" ht="15.75" customHeight="1">
+    <row r="195" spans="1:14">
       <c r="A195" s="3"/>
       <c r="B195" s="1"/>
       <c r="D195" s="1"/>
@@ -4830,7 +4919,7 @@
       <c r="M195" s="1"/>
       <c r="N195" s="1"/>
     </row>
-    <row r="196" spans="1:14" ht="15.75" customHeight="1">
+    <row r="196" spans="1:14">
       <c r="A196" s="3"/>
       <c r="B196" s="1"/>
       <c r="D196" s="1"/>
@@ -4845,7 +4934,7 @@
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
     </row>
-    <row r="197" spans="1:14" ht="15.75" customHeight="1">
+    <row r="197" spans="1:14">
       <c r="A197" s="3"/>
       <c r="B197" s="1"/>
       <c r="D197" s="1"/>
@@ -4860,7 +4949,7 @@
       <c r="M197" s="1"/>
       <c r="N197" s="1"/>
     </row>
-    <row r="198" spans="1:14" ht="15.75" customHeight="1">
+    <row r="198" spans="1:14">
       <c r="A198" s="3"/>
       <c r="B198" s="1"/>
       <c r="D198" s="1"/>
@@ -4875,7 +4964,7 @@
       <c r="M198" s="1"/>
       <c r="N198" s="1"/>
     </row>
-    <row r="199" spans="1:14" ht="15.75" customHeight="1">
+    <row r="199" spans="1:14">
       <c r="A199" s="3"/>
       <c r="B199" s="1"/>
       <c r="D199" s="1"/>
@@ -4890,7 +4979,7 @@
       <c r="M199" s="1"/>
       <c r="N199" s="1"/>
     </row>
-    <row r="200" spans="1:14" ht="15.75" customHeight="1">
+    <row r="200" spans="1:14">
       <c r="A200" s="3"/>
       <c r="B200" s="1"/>
       <c r="D200" s="1"/>
@@ -4905,7 +4994,7 @@
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
     </row>
-    <row r="201" spans="1:14" ht="15.75" customHeight="1">
+    <row r="201" spans="1:14">
       <c r="A201" s="3"/>
       <c r="B201" s="1"/>
       <c r="D201" s="1"/>
@@ -4920,7 +5009,7 @@
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
     </row>
-    <row r="202" spans="1:14" ht="15.75" customHeight="1">
+    <row r="202" spans="1:14">
       <c r="A202" s="3"/>
       <c r="B202" s="1"/>
       <c r="D202" s="1"/>
@@ -4935,7 +5024,7 @@
       <c r="M202" s="1"/>
       <c r="N202" s="1"/>
     </row>
-    <row r="203" spans="1:14" ht="15.75" customHeight="1">
+    <row r="203" spans="1:14">
       <c r="A203" s="3"/>
       <c r="B203" s="1"/>
       <c r="D203" s="1"/>
@@ -4950,7 +5039,7 @@
       <c r="M203" s="1"/>
       <c r="N203" s="1"/>
     </row>
-    <row r="204" spans="1:14" ht="15.75" customHeight="1">
+    <row r="204" spans="1:14">
       <c r="A204" s="3"/>
       <c r="B204" s="1"/>
       <c r="D204" s="1"/>
@@ -4965,7 +5054,7 @@
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
     </row>
-    <row r="205" spans="1:14" ht="15.75" customHeight="1">
+    <row r="205" spans="1:14">
       <c r="A205" s="3"/>
       <c r="B205" s="1"/>
       <c r="D205" s="1"/>
@@ -4980,7 +5069,7 @@
       <c r="M205" s="1"/>
       <c r="N205" s="1"/>
     </row>
-    <row r="206" spans="1:14" ht="15.75" customHeight="1">
+    <row r="206" spans="1:14">
       <c r="A206" s="3"/>
       <c r="B206" s="1"/>
       <c r="D206" s="1"/>
@@ -4995,7 +5084,7 @@
       <c r="M206" s="1"/>
       <c r="N206" s="1"/>
     </row>
-    <row r="207" spans="1:14" ht="15.75" customHeight="1">
+    <row r="207" spans="1:14">
       <c r="A207" s="3"/>
       <c r="B207" s="1"/>
       <c r="D207" s="1"/>
@@ -5010,7 +5099,7 @@
       <c r="M207" s="1"/>
       <c r="N207" s="1"/>
     </row>
-    <row r="208" spans="1:14" ht="15.75" customHeight="1">
+    <row r="208" spans="1:14">
       <c r="A208" s="3"/>
       <c r="B208" s="1"/>
       <c r="D208" s="1"/>
@@ -5025,7 +5114,7 @@
       <c r="M208" s="1"/>
       <c r="N208" s="1"/>
     </row>
-    <row r="209" spans="1:14" ht="15.75" customHeight="1">
+    <row r="209" spans="1:14">
       <c r="A209" s="3"/>
       <c r="B209" s="1"/>
       <c r="D209" s="1"/>
@@ -5040,7 +5129,7 @@
       <c r="M209" s="1"/>
       <c r="N209" s="1"/>
     </row>
-    <row r="210" spans="1:14" ht="15.75" customHeight="1">
+    <row r="210" spans="1:14">
       <c r="A210" s="3"/>
       <c r="B210" s="1"/>
       <c r="D210" s="1"/>
@@ -5055,7 +5144,7 @@
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
     </row>
-    <row r="211" spans="1:14" ht="15.75" customHeight="1">
+    <row r="211" spans="1:14">
       <c r="A211" s="3"/>
       <c r="B211" s="1"/>
       <c r="D211" s="1"/>
@@ -5070,7 +5159,7 @@
       <c r="M211" s="1"/>
       <c r="N211" s="1"/>
     </row>
-    <row r="212" spans="1:14" ht="15.75" customHeight="1">
+    <row r="212" spans="1:14">
       <c r="A212" s="3"/>
       <c r="B212" s="1"/>
       <c r="D212" s="1"/>
@@ -5085,7 +5174,7 @@
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
     </row>
-    <row r="213" spans="1:14" ht="15.75" customHeight="1">
+    <row r="213" spans="1:14">
       <c r="A213" s="3"/>
       <c r="B213" s="1"/>
       <c r="D213" s="1"/>
@@ -5100,7 +5189,7 @@
       <c r="M213" s="1"/>
       <c r="N213" s="1"/>
     </row>
-    <row r="214" spans="1:14" ht="15.75" customHeight="1">
+    <row r="214" spans="1:14">
       <c r="A214" s="3"/>
       <c r="B214" s="1"/>
       <c r="D214" s="1"/>
@@ -5115,7 +5204,7 @@
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
     </row>
-    <row r="215" spans="1:14" ht="15.75" customHeight="1">
+    <row r="215" spans="1:14">
       <c r="A215" s="3"/>
       <c r="B215" s="1"/>
       <c r="D215" s="1"/>
@@ -5130,7 +5219,7 @@
       <c r="M215" s="1"/>
       <c r="N215" s="1"/>
     </row>
-    <row r="216" spans="1:14" ht="15.75" customHeight="1">
+    <row r="216" spans="1:14">
       <c r="A216" s="3"/>
       <c r="B216" s="1"/>
       <c r="D216" s="1"/>
@@ -5145,7 +5234,7 @@
       <c r="M216" s="1"/>
       <c r="N216" s="1"/>
     </row>
-    <row r="217" spans="1:14" ht="15.75" customHeight="1">
+    <row r="217" spans="1:14">
       <c r="A217" s="3"/>
       <c r="B217" s="1"/>
       <c r="D217" s="1"/>
@@ -5160,7 +5249,7 @@
       <c r="M217" s="1"/>
       <c r="N217" s="1"/>
     </row>
-    <row r="218" spans="1:14" ht="15.75" customHeight="1">
+    <row r="218" spans="1:14">
       <c r="A218" s="3"/>
       <c r="B218" s="1"/>
       <c r="D218" s="1"/>
@@ -5175,7 +5264,7 @@
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
     </row>
-    <row r="219" spans="1:14" ht="15.75" customHeight="1">
+    <row r="219" spans="1:14">
       <c r="A219" s="3"/>
       <c r="B219" s="1"/>
       <c r="D219" s="1"/>
@@ -5190,7 +5279,7 @@
       <c r="M219" s="1"/>
       <c r="N219" s="1"/>
     </row>
-    <row r="220" spans="1:14" ht="15.75" customHeight="1">
+    <row r="220" spans="1:14">
       <c r="A220" s="3"/>
       <c r="B220" s="1"/>
       <c r="D220" s="1"/>
@@ -5205,7 +5294,7 @@
       <c r="M220" s="1"/>
       <c r="N220" s="1"/>
     </row>
-    <row r="221" spans="1:14" ht="15.75" customHeight="1">
+    <row r="221" spans="1:14">
       <c r="A221" s="3"/>
       <c r="B221" s="1"/>
       <c r="D221" s="1"/>
@@ -5220,7 +5309,7 @@
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
     </row>
-    <row r="222" spans="1:14" ht="15.75" customHeight="1">
+    <row r="222" spans="1:14">
       <c r="A222" s="3"/>
       <c r="B222" s="1"/>
       <c r="D222" s="1"/>
@@ -5235,7 +5324,7 @@
       <c r="M222" s="1"/>
       <c r="N222" s="1"/>
     </row>
-    <row r="223" spans="1:14" ht="15.75" customHeight="1">
+    <row r="223" spans="1:14">
       <c r="A223" s="3"/>
       <c r="B223" s="1"/>
       <c r="D223" s="1"/>
@@ -5250,7 +5339,7 @@
       <c r="M223" s="1"/>
       <c r="N223" s="1"/>
     </row>
-    <row r="224" spans="1:14" ht="15.75" customHeight="1">
+    <row r="224" spans="1:14">
       <c r="A224" s="3"/>
       <c r="B224" s="1"/>
       <c r="D224" s="1"/>
@@ -5265,7 +5354,7 @@
       <c r="M224" s="1"/>
       <c r="N224" s="1"/>
     </row>
-    <row r="225" spans="1:14" ht="15.75" customHeight="1">
+    <row r="225" spans="1:14">
       <c r="A225" s="3"/>
       <c r="B225" s="1"/>
       <c r="D225" s="1"/>
@@ -5280,7 +5369,7 @@
       <c r="M225" s="1"/>
       <c r="N225" s="1"/>
     </row>
-    <row r="226" spans="1:14" ht="15.75" customHeight="1">
+    <row r="226" spans="1:14">
       <c r="A226" s="3"/>
       <c r="B226" s="1"/>
       <c r="D226" s="1"/>
@@ -5295,7 +5384,7 @@
       <c r="M226" s="1"/>
       <c r="N226" s="1"/>
     </row>
-    <row r="227" spans="1:14" ht="15.75" customHeight="1">
+    <row r="227" spans="1:14">
       <c r="A227" s="3"/>
       <c r="B227" s="1"/>
       <c r="D227" s="1"/>
@@ -5310,7 +5399,7 @@
       <c r="M227" s="1"/>
       <c r="N227" s="1"/>
     </row>
-    <row r="228" spans="1:14" ht="15.75" customHeight="1">
+    <row r="228" spans="1:14">
       <c r="A228" s="3"/>
       <c r="B228" s="1"/>
       <c r="D228" s="1"/>
@@ -5325,7 +5414,7 @@
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
     </row>
-    <row r="229" spans="1:14" ht="15.75" customHeight="1">
+    <row r="229" spans="1:14">
       <c r="A229" s="3"/>
       <c r="B229" s="1"/>
       <c r="D229" s="1"/>
@@ -5340,7 +5429,7 @@
       <c r="M229" s="1"/>
       <c r="N229" s="1"/>
     </row>
-    <row r="230" spans="1:14" ht="15.75" customHeight="1">
+    <row r="230" spans="1:14">
       <c r="A230" s="3"/>
       <c r="B230" s="1"/>
       <c r="D230" s="1"/>
@@ -5355,7 +5444,7 @@
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
     </row>
-    <row r="231" spans="1:14" ht="15.75" customHeight="1">
+    <row r="231" spans="1:14">
       <c r="A231" s="3"/>
       <c r="B231" s="1"/>
       <c r="D231" s="1"/>
@@ -5370,7 +5459,7 @@
       <c r="M231" s="1"/>
       <c r="N231" s="1"/>
     </row>
-    <row r="232" spans="1:14" ht="15.75" customHeight="1">
+    <row r="232" spans="1:14">
       <c r="A232" s="3"/>
       <c r="B232" s="1"/>
       <c r="D232" s="1"/>
@@ -5385,7 +5474,7 @@
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
     </row>
-    <row r="233" spans="1:14" ht="15.75" customHeight="1">
+    <row r="233" spans="1:14">
       <c r="A233" s="3"/>
       <c r="B233" s="1"/>
       <c r="D233" s="1"/>
@@ -5400,7 +5489,7 @@
       <c r="M233" s="1"/>
       <c r="N233" s="1"/>
     </row>
-    <row r="234" spans="1:14" ht="15.75" customHeight="1">
+    <row r="234" spans="1:14">
       <c r="A234" s="3"/>
       <c r="B234" s="1"/>
       <c r="D234" s="1"/>
@@ -5415,7 +5504,8 @@
       <c r="M234" s="1"/>
       <c r="N234" s="1"/>
     </row>
-    <row r="235" spans="1:14" ht="15.75" customHeight="1">
+    <row r="235" spans="1:14">
+      <c r="A235" s="3"/>
       <c r="B235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -5429,7 +5519,8 @@
       <c r="M235" s="1"/>
       <c r="N235" s="1"/>
     </row>
-    <row r="236" spans="1:14" ht="15.75" customHeight="1">
+    <row r="236" spans="1:14">
+      <c r="A236" s="3"/>
       <c r="B236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -5443,7 +5534,8 @@
       <c r="M236" s="1"/>
       <c r="N236" s="1"/>
     </row>
-    <row r="237" spans="1:14" ht="15.75" customHeight="1">
+    <row r="237" spans="1:14">
+      <c r="A237" s="3"/>
       <c r="B237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -5457,7 +5549,7 @@
       <c r="M237" s="1"/>
       <c r="N237" s="1"/>
     </row>
-    <row r="238" spans="1:14" ht="15.75" customHeight="1">
+    <row r="238" spans="1:14">
       <c r="B238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -5471,7 +5563,7 @@
       <c r="M238" s="1"/>
       <c r="N238" s="1"/>
     </row>
-    <row r="239" spans="1:14" ht="15.75" customHeight="1">
+    <row r="239" spans="1:14">
       <c r="B239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -5485,7 +5577,7 @@
       <c r="M239" s="1"/>
       <c r="N239" s="1"/>
     </row>
-    <row r="240" spans="1:14" ht="15.75" customHeight="1">
+    <row r="240" spans="1:14">
       <c r="B240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -5499,764 +5591,48 @@
       <c r="M240" s="1"/>
       <c r="N240" s="1"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="241" spans="2:14">
+      <c r="B241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="3"/>
+      <c r="G241" s="1"/>
+      <c r="H241" s="1"/>
+      <c r="I241" s="1"/>
+      <c r="J241" s="1"/>
+      <c r="K241" s="1"/>
+      <c r="L241" s="1"/>
+      <c r="M241" s="1"/>
+      <c r="N241" s="1"/>
+    </row>
+    <row r="242" spans="2:14">
+      <c r="B242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="3"/>
+      <c r="G242" s="1"/>
+      <c r="H242" s="1"/>
+      <c r="I242" s="1"/>
+      <c r="J242" s="1"/>
+      <c r="K242" s="1"/>
+      <c r="L242" s="1"/>
+      <c r="M242" s="1"/>
+      <c r="N242" s="1"/>
+    </row>
+    <row r="243" spans="2:14">
+      <c r="B243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
+      <c r="F243" s="3"/>
+      <c r="G243" s="1"/>
+      <c r="H243" s="1"/>
+      <c r="I243" s="1"/>
+      <c r="J243" s="1"/>
+      <c r="K243" s="1"/>
+      <c r="L243" s="1"/>
+      <c r="M243" s="1"/>
+      <c r="N243" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:B2"/>
